--- a/hasil evaluasi.xlsx
+++ b/hasil evaluasi.xlsx
@@ -468,13 +468,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>412.9768518554861</v>
+        <v>426.0632134760123</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04407254969502879</v>
+        <v>0.04370239089072381</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004734892992522817</v>
+        <v>0.00471462395471832</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>423.7440864167369</v>
+        <v>420.1299162200985</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04432228462867901</v>
+        <v>0.04124194673632536</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004728121449826343</v>
+        <v>0.004671917444846616</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>441.0382236106944</v>
+        <v>432.0350368299685</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04216576776569289</v>
+        <v>0.03983737340696532</v>
       </c>
       <c r="E4" t="n">
-        <v>0.004536527776447934</v>
+        <v>0.004477356113483559</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>435.4684758206853</v>
+        <v>422.299500996419</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0406483630651699</v>
+        <v>0.0400572610803341</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004675062711094596</v>
+        <v>0.004589576571682042</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>427.8598020603722</v>
+        <v>443.8666218298215</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03708324047815229</v>
+        <v>0.03779233706551523</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004417844602390802</v>
+        <v>0.004374093340458972</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>437.2588157274643</v>
+        <v>430.9661510065557</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03644982345701561</v>
+        <v>0.03580426719181704</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004285455058140152</v>
+        <v>0.004353723522093954</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>442.4068045699662</v>
+        <v>437.1182132841537</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03548380338318496</v>
+        <v>0.03505133955939102</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004289461415586367</v>
+        <v>0.004380276975960351</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>448.3281433500014</v>
+        <v>444.7435646881982</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03465474904161327</v>
+        <v>0.03383169886052637</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004402475364832494</v>
+        <v>0.004234261254704342</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>440.5520342910482</v>
+        <v>437.6554454829168</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03415107390834435</v>
+        <v>0.03419476384526278</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004370905852884552</v>
+        <v>0.004411541064514765</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>459.14506717914</v>
+        <v>428.3440041445629</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03378936942093375</v>
+        <v>0.03410936978163668</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004274862455525513</v>
+        <v>0.004261592935558845</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>272.7087678472919</v>
+        <v>267.0927165102643</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04348917055801855</v>
+        <v>0.04340211130482626</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005457479788316331</v>
+        <v>0.005454188110284124</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>288.0687078127205</v>
+        <v>281.4912420168737</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04305066905206614</v>
+        <v>0.0423574621465564</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005385948264344996</v>
+        <v>0.00533548979766074</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>283.6584362227135</v>
+        <v>283.8863744251123</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04153668419353692</v>
+        <v>0.03939649842926696</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005303263082659051</v>
+        <v>0.005155968263316754</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>300.9955056029082</v>
+        <v>290.4515129201933</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03533362831175332</v>
+        <v>0.03986705685688388</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00505452939127984</v>
+        <v>0.005036566509961217</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>303.5601807282499</v>
+        <v>288.0081379012094</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03746169224307933</v>
+        <v>0.04011024795245739</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00503674140271807</v>
+        <v>0.005297249801587673</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>308.9852388029558</v>
+        <v>311.9925722571516</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03544130237449238</v>
+        <v>0.03504596340463016</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004901300658195378</v>
+        <v>0.004923916276476663</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>294.4735055917291</v>
+        <v>299.8703642839017</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03741009325114868</v>
+        <v>0.03601948161330779</v>
       </c>
       <c r="E18" t="n">
-        <v>0.005119763714814054</v>
+        <v>0.00494403352738802</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>314.1866969887689</v>
+        <v>300.2938332578236</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03487613597930764</v>
+        <v>0.03361949055945714</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004924605099357565</v>
+        <v>0.004876262712665391</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>313.1673564732465</v>
+        <v>306.296464998595</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03587319125503564</v>
+        <v>0.03408759570665376</v>
       </c>
       <c r="E20" t="n">
-        <v>0.005014311872534234</v>
+        <v>0.004961457242845116</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>319.4231979301567</v>
+        <v>296.1747764660667</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0344807473372956</v>
+        <v>0.03378905414829805</v>
       </c>
       <c r="E21" t="n">
-        <v>0.005003718683238363</v>
+        <v>0.005019849587044944</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>246.9498279198556</v>
+        <v>248.5022360600443</v>
       </c>
       <c r="D22" t="n">
-        <v>0.04426361868078417</v>
+        <v>0.04521354634927911</v>
       </c>
       <c r="E22" t="n">
-        <v>0.008492974373307966</v>
+        <v>0.00868941330483077</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>291.7996772153717</v>
+        <v>256.8998036719012</v>
       </c>
       <c r="D23" t="n">
-        <v>0.04324492819860457</v>
+        <v>0.04381790386867993</v>
       </c>
       <c r="E23" t="n">
-        <v>0.008140993218365202</v>
+        <v>0.00871859953479685</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>269.0130987726432</v>
+        <v>286.1499772360048</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04375848160976784</v>
+        <v>0.04282476448267673</v>
       </c>
       <c r="E24" t="n">
-        <v>0.008598979277854276</v>
+        <v>0.008139432347409721</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>305.8170974100077</v>
+        <v>285.9231472452425</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04062803269198573</v>
+        <v>0.04418681742448526</v>
       </c>
       <c r="E25" t="n">
-        <v>0.008180780109299077</v>
+        <v>0.008386651133349635</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>302.8600727354906</v>
+        <v>306.5328278420245</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04154566190364533</v>
+        <v>0.04367163342838067</v>
       </c>
       <c r="E26" t="n">
-        <v>0.008089936016415401</v>
+        <v>0.008467917880324284</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>314.6433934513363</v>
+        <v>304.986915282291</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04179557297584061</v>
+        <v>0.04246282657730117</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0080536791028748</v>
+        <v>0.008198151747930139</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>329.0508383660763</v>
+        <v>355.1439696957298</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03940030824980614</v>
+        <v>0.03987061948109915</v>
       </c>
       <c r="E28" t="n">
-        <v>0.007998407617769099</v>
+        <v>0.007966886999150892</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>321.3001478319307</v>
+        <v>314.4202936549943</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04085645968547768</v>
+        <v>0.04033004127275863</v>
       </c>
       <c r="E29" t="n">
-        <v>0.008262115656322464</v>
+        <v>0.008252825207280578</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>333.4369960406893</v>
+        <v>338.9548952739481</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04153761154580553</v>
+        <v>0.03956471859498971</v>
       </c>
       <c r="E30" t="n">
-        <v>0.008578075630130501</v>
+        <v>0.008193428624830705</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>341.3170668896421</v>
+        <v>306.9499593445305</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04220932054316236</v>
+        <v>0.0422223065113173</v>
       </c>
       <c r="E31" t="n">
-        <v>0.008704578862735646</v>
+        <v>0.008872945391573007</v>
       </c>
     </row>
   </sheetData>

--- a/hasil evaluasi.xlsx
+++ b/hasil evaluasi.xlsx
@@ -468,13 +468,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>426.0632134760123</v>
+        <v>3.919999617323374</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04370239089072381</v>
+        <v>0.04364188412845704</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00471462395471832</v>
+        <v>0.004773005639701466</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>420.1299162200985</v>
+        <v>4.056508473240268</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04124194673632536</v>
+        <v>0.04393289499137274</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004671917444846616</v>
+        <v>0.004796173559582947</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>432.0350368299685</v>
+        <v>4.191657624564721</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03983737340696532</v>
+        <v>0.03806108918160667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.004477356113483559</v>
+        <v>0.004444171107393718</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>422.299500996419</v>
+        <v>4.405800956396414</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0400572610803341</v>
+        <v>0.03769437195932628</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004589576571682042</v>
+        <v>0.004403502348903271</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>443.8666218298215</v>
+        <v>4.462980629919099</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03779233706551523</v>
+        <v>0.03570156320896727</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004374093340458972</v>
+        <v>0.004215855741062721</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>430.9661510065557</v>
+        <v>4.38531602820339</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03580426719181704</v>
+        <v>0.0339634883646835</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004353723522093954</v>
+        <v>0.004252239696159292</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>437.1182132841537</v>
+        <v>4.359055792579973</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03505133955939102</v>
+        <v>0.03623361715791856</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004380276975960351</v>
+        <v>0.004389239787820821</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>444.7435646881982</v>
+        <v>4.486412186928102</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03383169886052637</v>
+        <v>0.03474961993609193</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004234261254704342</v>
+        <v>0.004285240082859647</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>437.6554454829168</v>
+        <v>4.435681110803973</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03419476384526278</v>
+        <v>0.03419626786406618</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004411541064514765</v>
+        <v>0.00418661266011862</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>428.3440041445629</v>
+        <v>4.214243320103377</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03410936978163668</v>
+        <v>0.03515492846024287</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004261592935558845</v>
+        <v>0.004327228446908592</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>267.0927165102643</v>
+        <v>2.863826332656492</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04340211130482626</v>
+        <v>0.04314080167126481</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005454188110284124</v>
+        <v>0.005358544271039043</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>281.4912420168737</v>
+        <v>2.975135138725265</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0423574621465564</v>
+        <v>0.03964926156425852</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00533548979766074</v>
+        <v>0.005044099955581363</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>283.8863744251123</v>
+        <v>2.704109421420403</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03939649842926696</v>
+        <v>0.0424678699125136</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005155968263316754</v>
+        <v>0.005383090411637056</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>290.4515129201933</v>
+        <v>2.878057377342008</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03986705685688388</v>
+        <v>0.04061440981417942</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005036566509961217</v>
+        <v>0.005392041408127326</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>288.0081379012094</v>
+        <v>2.996292450284204</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04011024795245739</v>
+        <v>0.03453140772791113</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005297249801587673</v>
+        <v>0.004915421422430935</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>311.9925722571516</v>
+        <v>3.034972817423917</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03504596340463016</v>
+        <v>0.03570881888924399</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004923916276476663</v>
+        <v>0.004996853983981153</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>299.8703642839017</v>
+        <v>3.034228893584558</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03601948161330779</v>
+        <v>0.03404513884694729</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00494403352738802</v>
+        <v>0.004915282143249947</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>8</v>
       </c>
       <c r="C19" t="n">
-        <v>300.2938332578236</v>
+        <v>2.911060832655145</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03361949055945714</v>
+        <v>0.03512462475947124</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004876262712665391</v>
+        <v>0.005077141227771523</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>306.296464998595</v>
+        <v>2.906481136262204</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03408759570665376</v>
+        <v>0.03423786008822026</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004961457242845116</v>
+        <v>0.005190902011329355</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>296.1747764660667</v>
+        <v>3.009180145879282</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03378905414829805</v>
+        <v>0.03361920050705042</v>
       </c>
       <c r="E21" t="n">
-        <v>0.005019849587044944</v>
+        <v>0.005118119934739717</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>248.5022360600443</v>
+        <v>2.489050264806657</v>
       </c>
       <c r="D22" t="n">
-        <v>0.04521354634927911</v>
+        <v>0.0448447709219787</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00868941330483077</v>
+        <v>0.008601053693751005</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>256.8998036719012</v>
+        <v>2.696901648255213</v>
       </c>
       <c r="D23" t="n">
-        <v>0.04381790386867993</v>
+        <v>0.04359257214334964</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00871859953479685</v>
+        <v>0.008252208123847273</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>286.1499772360048</v>
+        <v>3.034685276875358</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04282476448267673</v>
+        <v>0.04204542933916432</v>
       </c>
       <c r="E24" t="n">
-        <v>0.008139432347409721</v>
+        <v>0.008169880634241424</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>285.9231472452425</v>
+        <v>2.902009185683497</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04418681742448526</v>
+        <v>0.04372099443080489</v>
       </c>
       <c r="E25" t="n">
-        <v>0.008386651133349635</v>
+        <v>0.008946260361490937</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>306.5328278420245</v>
+        <v>3.191188775938798</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04367163342838067</v>
+        <v>0.04219580873961122</v>
       </c>
       <c r="E26" t="n">
-        <v>0.008467917880324284</v>
+        <v>0.0085398997980006</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>304.986915282291</v>
+        <v>3.110968391551785</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04246282657730117</v>
+        <v>0.03956909854927815</v>
       </c>
       <c r="E27" t="n">
-        <v>0.008198151747930139</v>
+        <v>0.008030573030459778</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>355.1439696957298</v>
+        <v>3.327539939899963</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03987061948109915</v>
+        <v>0.04180255288919855</v>
       </c>
       <c r="E28" t="n">
-        <v>0.007966886999150892</v>
+        <v>0.008432820469950338</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>314.4202936549943</v>
+        <v>3.180502431485448</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04033004127275863</v>
+        <v>0.04106957605230944</v>
       </c>
       <c r="E29" t="n">
-        <v>0.008252825207280578</v>
+        <v>0.008248012449579801</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>338.9548952739481</v>
+        <v>3.277807242931473</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03956471859498971</v>
+        <v>0.04154498843248508</v>
       </c>
       <c r="E30" t="n">
-        <v>0.008193428624830705</v>
+        <v>0.00856348674949816</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>306.9499593445305</v>
+        <v>3.32893584634974</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0422223065113173</v>
+        <v>0.04056158282510196</v>
       </c>
       <c r="E31" t="n">
-        <v>0.008872945391573007</v>
+        <v>0.008448337209257143</v>
       </c>
     </row>
   </sheetData>
